--- a/testbook.xlsx
+++ b/testbook.xlsx
@@ -1,53 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>Result</t>
+    <t>Point B</t>
   </si>
   <si>
-    <t>Point B</t>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,22 +64,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -368,229 +363,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="n">
         <v>2668</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" t="n">
+        <v>57.99948691178674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="n">
         <v>14456</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" t="n">
+        <v>303.9078980525107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="n">
         <v>33496</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>1215.22683410599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="n">
         <v>93108</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>2654.146943718167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="n">
         <v>23117</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="n">
+        <v>469.2753815744859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="n">
         <v>1906</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="n">
+        <v>7.634793504728203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="n">
         <v>6335</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="n">
+        <v>82.43971581465404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="n">
         <v>54956</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" t="n">
+        <v>885.5068210237885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="n">
         <v>2351</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" t="n">
+        <v>17.85151035727555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="n">
         <v>7463</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>97007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>55744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>13668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>94549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>10952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>94549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>11566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>11776</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>55378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>11710</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>6109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>93108</v>
+      <c r="B11" t="n">
+        <v>183.42588601367</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="n">
+        <v>10604</v>
+      </c>
+      <c r="B1" t="n">
+        <v>164.7796484584141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="n">
+        <v>2746</v>
+      </c>
+      <c r="B2" t="n">
+        <v>48.89066848313944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="n">
+        <v>97007</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2549.304034387887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="n">
+        <v>11518</v>
+      </c>
+      <c r="B4" t="n">
+        <v>179.6660466702788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="n">
+        <v>3249</v>
+      </c>
+      <c r="B5" t="n">
+        <v>83.68051855341973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="n">
+        <v>1749</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.30352229890022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27.86993302147855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="n">
+        <v>7003</v>
+      </c>
+      <c r="B8" t="n">
+        <v>194.1598816631615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.897064239153568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="n">
+        <v>3809</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76.50287317835081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="n">
+        <v>55744</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1148.968101995276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="n">
+        <v>4769</v>
+      </c>
+      <c r="B12" t="n">
+        <v>334.4459904966806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="n">
+        <v>13668</v>
+      </c>
+      <c r="B13" t="n">
+        <v>257.028165611634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="n">
+        <v>3755</v>
+      </c>
+      <c r="B14" t="n">
+        <v>111.3374597713254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="n">
+        <v>6239</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57.04873448924737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B16" t="n">
+        <v>37.4199055471571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="n">
+        <v>94549</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2680.186181997145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="n">
+        <v>10952</v>
+      </c>
+      <c r="B18" t="n">
+        <v>177.5082290857682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="n">
+        <v>94549</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2680.186181997145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="n">
+        <v>11566</v>
+      </c>
+      <c r="B20" t="n">
+        <v>173.9518086468494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="n">
+        <v>11776</v>
+      </c>
+      <c r="B21" t="n">
+        <v>143.0597257270976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="n">
+        <v>55378</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1126.872735537201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="n">
+        <v>11710</v>
+      </c>
+      <c r="B23" t="n">
+        <v>173.0880778349624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40.12424297789852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="n">
+        <v>6109</v>
+      </c>
+      <c r="B25" t="n">
+        <v>94.44684196542499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="n">
+        <v>93108</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2654.146943718167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>